--- a/src/test/resources/testData/pruebasExcel.xlsx
+++ b/src/test/resources/testData/pruebasExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos Automatizacion\workspace\Demoblaze-master\Demoblaze-master\src\test\java\Demoblaze\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automatizacion\Intermedio\demos\OrangeHrm\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
@@ -24,42 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>jhonata</t>
-  </si>
-  <si>
-    <t>medin</t>
-  </si>
-  <si>
-    <t>hihjk</t>
-  </si>
-  <si>
-    <t>uyyu</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>dos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>jt123</t>
+  </si>
+  <si>
+    <t>a123</t>
   </si>
 </sst>
 </file>
@@ -378,73 +363,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
